--- a/rnaSample/rnaSample_H.BROWN_11.16.20.xlsx
+++ b/rnaSample/rnaSample_H.BROWN_11.16.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627B3550-786D-674B-9814-99474FEF0CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35FF8A2-9B59-274D-99C3-9A252FBBD8CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="460" windowWidth="22720" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D27"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,16 +1130,108 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H28" s="1"/>
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H29" s="1"/>
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H30" s="1"/>
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H31" s="1"/>
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H32" s="1"/>
